--- a/Dataset/Authors/PETRON.xlsx
+++ b/Dataset/Authors/PETRON.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Dropbox\ALEXANDER\STUDIA\2025_Database_composti\Auctores_DB\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1knjo21SeGbZ1-eICJFWxrgYeTavGEZsK\Latin_Compounds_Database\Auctores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE29C173-41D2-44C6-AF1B-1CA4D351B17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D2E2F-4E59-4229-ADA7-247038415990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,9 +376,6 @@
     <t>sestertius</t>
   </si>
   <si>
-    <t>sevir</t>
-  </si>
-  <si>
     <t>seviratus</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Occurrences</t>
+  </si>
+  <si>
+    <t>seviri</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>1</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>1</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1700,10 +1700,10 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>1</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>1</v>
@@ -4772,7 +4772,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
@@ -4802,10 +4802,10 @@
     </row>
     <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B120" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="8">
         <v>1</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="8">
         <v>3</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="8">
         <v>1</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="8">
         <v>2</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="8">
         <v>1</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="8">
         <v>2</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="8">
         <v>2</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="8">
         <v>1</v>
@@ -5099,7 +5099,7 @@
     </row>
     <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="8">
         <v>1</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="8">
         <v>1</v>
@@ -5165,7 +5165,7 @@
     </row>
     <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="8">
         <v>1</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="8">
         <v>1</v>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="8">
         <v>3</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="8">
         <v>1</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="8">
         <v>1</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="8">
         <v>26</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="8">
         <v>3</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="8">
         <v>1</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="8">
         <v>3</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="8">
         <v>2</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="8">
         <v>1</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="8">
         <v>1</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="8">
         <v>1</v>
@@ -5594,7 +5594,7 @@
     </row>
     <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="8">
         <v>2</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="8">
         <v>1</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="8">
         <v>1</v>
@@ -5692,6 +5692,9 @@
       <c r="AA146" s="8"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B146">
+    <sortCondition ref="A120:A146"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>